--- a/docs/odh/shr-core-MedicationRequest-model.xlsx
+++ b/docs/odh/shr-core-MedicationRequest-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$31</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="143">
   <si>
     <t>Path</t>
   </si>
@@ -390,6 +390,18 @@
   </si>
   <si>
     <t>A choice of a medication code or reference.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationCodeOrReferenceCoding</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>A set of codes drawn from different coding systems, representing the same concept.</t>
+  </si>
+  <si>
+    <t>http://h7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
   </si>
   <si>
     <t>shr-core-MedicationRequest-model.dosage</t>
@@ -615,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -624,8 +636,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.63671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2865,16 +2877,14 @@
         <v>36</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>113</v>
@@ -2896,13 +2906,15 @@
       <c r="A24" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>41</v>
@@ -2917,7 +2929,7 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>118</v>
@@ -2950,16 +2962,14 @@
         <v>36</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>36</v>
@@ -2974,10 +2984,10 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>41</v>
@@ -2999,7 +3009,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>41</v>
@@ -3056,7 +3066,7 @@
         <v>36</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>36</v>
@@ -3074,7 +3084,7 @@
         <v>120</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>41</v>
@@ -3088,7 +3098,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3096,7 +3106,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>41</v>
@@ -3111,13 +3121,13 @@
         <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3168,10 +3178,10 @@
         <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>41</v>
@@ -3185,7 +3195,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3208,13 +3218,13 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3265,7 +3275,7 @@
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>37</v>
@@ -3282,7 +3292,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3305,13 +3315,13 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3347,7 +3357,7 @@
         <v>36</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>36</v>
@@ -3362,7 +3372,7 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
@@ -3444,7 +3454,7 @@
         <v>36</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>36</v>
@@ -3476,7 +3486,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3499,13 +3509,13 @@
         <v>36</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3532,45 +3542,142 @@
         <v>36</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W31" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="X30" s="2"/>
-      <c r="Y30" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI30" t="s" s="2">
+      <c r="X31" s="2"/>
+      <c r="Y31" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI31" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI30">
+  <autoFilter ref="A1:AI31">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3580,7 +3687,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI29">
+  <conditionalFormatting sqref="A2:AI30">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-MedicationRequest-model.xlsx
+++ b/docs/odh/shr-core-MedicationRequest-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$47</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="193">
   <si>
     <t>Path</t>
   </si>
@@ -146,7 +146,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -163,10 +163,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-MedicationRequest-model.implicitRules</t>
   </si>
   <si>
@@ -180,7 +176,7 @@
     <t>shr-core-MedicationRequest-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -193,34 +189,44 @@
     <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
   </si>
   <si>
+    <t>shr-core-MedicationRequest-model.statusReason</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the procedure.</t>
+  </si>
+  <si>
     <t>shr-core-MedicationRequest-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
     <t>Business identifier or external id for this resource.</t>
   </si>
   <si>
-    <t>shr-core-MedicationRequest-model.patientSubjectOfRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model]]}
+    <t>shr-core-MedicationRequest-model.subjectOfRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model]]}
 </t>
   </si>
   <si>
-    <t>The SubjectOfRecord when restricted to being a Patient resource.</t>
+    <t>The subject of a clinical statement, often called the Patient or the Subject. The SubjectOfRecord typically identifies the clinical record in which this statement is contained. If the statement should be in John Doe's patient record, then John Doe is the subject of record. When there is no patient, the SubjectOfRecord can also be a location, group, or other entity that statement pertains to. For example, observations concerning a hospital ward would have a Location as the SubjectOfRecord.</t>
+  </si>
+  <si>
+    <t>The subject of a clinical statement, often called the Patient or the Subject. The SubjectOfRecord typically identifies the clinical record in which this statement is contained. If the statement should be in John Doe's patient record, then John Doe is the subject of record. When there is no patient, the SubjectOfRecord can also be a location, group, or other entity that statement pertains to. For example, observations concerning a hospital ward would have a Location as the SubjectOfRecord.
+Note that the word 'Subject' is used here in the sense of a person or entity subjected to observations or actions, not subject as in a conceptual topic, like heart disease.</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1299487
 </t>
   </si>
   <si>
-    <t>shr-core-MedicationRequest-model.careContext[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare-model]]}
+    <t>shr-core-MedicationRequest-model.careContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter-model]]}
 </t>
   </si>
   <si>
@@ -244,11 +250,11 @@
     <t>shr-core-MedicationRequest-model.reasonCode</t>
   </si>
   <si>
-    <t>The justification, as a code.</t>
-  </si>
-  <si>
-    <t>The justification, as a code.
-Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
+    <t>The explanation or justification for the current item or action, as a code.</t>
+  </si>
+  <si>
+    <t>The explanation or justification for the current item or action, as a code.
+Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept.</t>
   </si>
   <si>
     <t>example</t>
@@ -261,20 +267,141 @@
 </t>
   </si>
   <si>
-    <t>shr-core-MedicationRequest-model.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition-model]]}
+    <t>shr-core-MedicationRequest-model.medicationReasonReference[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DiagnosticReport-model]]}
 </t>
   </si>
   <si>
-    <t>The justification, as reference to a condition or observation.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.type</t>
-  </si>
-  <si>
-    <t>A code describing the item at a greater level of detail.</t>
+    <t>Condition or observation that supports why the medication is being/was taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationReasonReferenceShr-core-Condition-model</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition-model]]}
+</t>
+  </si>
+  <si>
+    <t>A condition that is or may be present in a subject. 'Condition' is interpreted broadly and could be a disorder, abnormality, problem, injury, complaint, functionality, illness, disease, ailment, sickness, affliction, upset, difficulty, disorder, symptom, worry, or trouble.</t>
+  </si>
+  <si>
+    <t>A condition that is or may be present in a subject. 'Condition' is interpreted broadly and could be a disorder, abnormality, problem, injury, complaint, functionality, illness, disease, ailment, sickness, affliction, upset, difficulty, disorder, symptom, worry, or trouble.
+The Observation-based class, ConditionAbsent, should be used to describe conditions that are not present or negative findings.
+SHR Condition uses the SHR BodyLocation structure that includes not only a code, but optional laterality, direction, clock direction, and distance. If included, the distance is measured from the location specified by the code, laterality, and direction.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationReasonReferenceShr-core-Observation-model</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation-model]]}
+</t>
+  </si>
+  <si>
+    <t>Represents the result of evaluations (measurements, tests, or questions) that have been performed.</t>
+  </si>
+  <si>
+    <t>Represents the result of evaluations (measurements, tests, or questions) that have been performed.
+Observation has a value representing the result (answer), or an DataAbsentReason indicating why the value is not present. Things observed about the subject can include social and behavioral factors, subjective and objective observations, and assessments.
+For an Observation, the Code describes the aspect or property of the subject being observed or measured. The Code is the 'question code' that pairs to the 'answer' contained in the Value.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationReasonReferenceShr-core-DiagnosticReport-model</t>
+  </si>
+  <si>
+    <t>DiagnosticReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DiagnosticReport-model]]}
+</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationBasedOn[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ServiceRequest-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-MedicationRequest-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ProcedureRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>MedicationBasedOn</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationBasedOnShr-core-ServiceRequest-model</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ServiceRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationBasedOnShr-core-MedicationRequest-model</t>
+  </si>
+  <si>
+    <t>MedicationRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-MedicationRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>An order for a medication to be dispensed and instructions for use.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationBasedOnShr-core-ReferralRequest-model</t>
+  </si>
+  <si>
+    <t>ReferralRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>Used to record and send details about a request for referral service or transfer of a patient to the care of another provider or provider organization.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationBasedOnShr-core-ProcedureRequest-model</t>
+  </si>
+  <si>
+    <t>ProcedureRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ProcedureRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>A request for a procedure to be performed. May be a proposal or an order.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.code</t>
+  </si>
+  <si>
+    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.category</t>
+  </si>
+  <si>
+    <t>The general type or class of this item.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -283,10 +410,16 @@
     <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0332307
+    <t>shr-core-MedicationRequest-model.requester[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model]]}
 </t>
   </si>
   <si>
+    <t>The person or organization originating this referral</t>
+  </si>
+  <si>
     <t>shr-core-MedicationRequest-model.requestIntent</t>
   </si>
   <si>
@@ -299,38 +432,30 @@
     <t>http://hl7.org/fhir/ValueSet/medication-request-intent</t>
   </si>
   <si>
-    <t>shr-core-MedicationRequest-model.expectedPerformanceTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}
+    <t>shr-core-MedicationRequest-model.expectedPerformanceTime[x]</t>
+  </si>
+  <si>
+    <t>dateTime {[]} {[]}
+http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Timing-model {[]} {[]}</t>
+  </si>
+  <si>
+    <t>When an action should be done. If the action is a series or recurs (e.g. daily blood sugar testing in the morning) then a Timing can be used to describe the periodicity.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.expectedPerformerType</t>
+  </si>
+  <si>
+    <t>What type of party should carry out the testing.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.expectedPerformer[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model]]}
 </t>
   </si>
   <si>
-    <t>When an action should be done. If the action is a series or recurs (e.g. daily blood sugar testing in the morning) then a Timing can be used to describe the periodicity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1948053
-</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.expectedPerformerType</t>
-  </si>
-  <si>
-    <t>What type of party should carry out the testing.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.recipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model]]}
-</t>
-  </si>
-  <si>
     <t>Who this request is being addressed to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1561598
-</t>
   </si>
   <si>
     <t>shr-core-MedicationRequest-model.priorityCode[x]</t>
@@ -343,142 +468,180 @@
     <t>An indication of the importance of an action relative to other actions.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0549179
+    <t>shr-core-MedicationRequest-model.priorityCodeCoding</t>
+  </si>
+  <si>
+    <t>codeableConcept</t>
+  </si>
+  <si>
+    <t>PositiveInt or code representing an indication of the importance of an action relative to other actions.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-request-priority</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.priorityCodeCoding</t>
-  </si>
-  <si>
-    <t>codeableConcept</t>
-  </si>
-  <si>
-    <t>PositiveInt or code representing an indication of the importance of an action relative to other actions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-request-priority</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.annotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Annotation-model {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
   </si>
   <si>
-    <t>shr-core-MedicationRequest-model.communicationMethod</t>
-  </si>
-  <si>
-    <t>This is the method the provider used to communicate. Examples include: Written, Telephoned, Verbal, Electronically Entered, Policy, Service Correction, Duplicate, etc. 'Code indicating the origin of the prescription.' - NCPDP Telecommunication (Field 419-DJ, Data Dictionary 201104). Possible values include: Written; Telephone; Electronic; Facsimile; Pharmacy; Not Known.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.medicationCodeOrReference[x]</t>
-  </si>
-  <si>
-    <t>Coding {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model]]}</t>
-  </si>
-  <si>
-    <t>A choice of a medication code or reference.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.medicationCodeOrReferenceCoding</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>A set of codes drawn from different coding systems, representing the same concept.</t>
-  </si>
-  <si>
-    <t>http://h7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.dosage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Dosage-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The dosage of the medication. The data structure is flexible and can describe a dosage prescribed, administered, or reported.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0178602
-</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.medicationRequester[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model]]}
-</t>
-  </si>
-  <si>
-    <t>The individual, organization or device that initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.numberOfRefillsAllowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The maximum number of times the dispense can be repeated. For medication dispense, this integer does NOT include the original order dispense. This means that if an order indicates dispense 30 tablets plus 3 repeats, then the order can be dispensed a total of 4 times and the patient can receive a total of 120 tablets.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.quantityPerDispense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SimpleQuantity-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The amount that is to be dispensed for one fill.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.supplyDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Duration-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Identifies the period time over which the supplied product is expected to be used, or the length of time the dispense is expected to last.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0449238
-</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.substitutionAllowed</t>
+    <t>shr-core-MedicationRequest-model.doNotPerform</t>
   </si>
   <si>
     <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Whether substitution is allowed or not.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.substitutionReason</t>
-  </si>
-  <si>
-    <t>Why should (not) substitution be made.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
+    <t>A flag, when set to true, indicates that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Indicates if this record was captured as a secondary 'reported' record rather than as an original primary source-of-truth record. It may also indicate the source of the report.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.reported.value[x]</t>
+  </si>
+  <si>
+    <t>boolean {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-InformationSource-model]]}</t>
+  </si>
+  <si>
+    <t>Boolean or InformationSource representing indicates if this record was captured as a secondary 'reported' record rather than as an original primary source-of-truth record. It may also indicate the source of the report.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.reported.medicationInformationSource</t>
+  </si>
+  <si>
+    <t>informationSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-MedicationInformationSource-model]]}
+</t>
+  </si>
+  <si>
+    <t>The informant for this medication statement.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationCodeOrReference[x]</t>
+  </si>
+  <si>
+    <t>Coding {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Medication-model]]}</t>
+  </si>
+  <si>
+    <t>A choice of a medication code or reference.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationCodeOrReferenceCoding</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>A set of codes drawn from different coding systems, representing the same concept.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://h7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource-model]]}
+</t>
+  </si>
+  <si>
+    <t>Additional information to support this request.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model]]}
+</t>
+  </si>
+  <si>
+    <t>The actor who created the item and it responsible for the content (regardless of the information source or who recorded it). If only the author is given, it is assumed the author is the information source and the recorder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C2220264
+</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.groupIdentifier</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.courseOfTherapyType</t>
+  </si>
+  <si>
+    <t>The description of the overall pattern of the administration of the medication to the patient.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Coverage-model]]}
+</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0021682 (HealthInsurance)
+</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.dosage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Dosage-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The dosage of the medication. The data structure is flexible and can describe a dosage prescribed, administered, or reported.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.dispenseRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DispenseRequest-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Indicates the specific details for the dispense or medication supply part of a medication request (also known as a Medication Prescription or Medication Order). Note that this information is not always sent with the order. There may be in some settings (e.g. hospitals) institutional or system support for completing the dispense details in the pharmacy department.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.substitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Substitution-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Indicates whether or not substitution can or should be part of the dispense. In some cases, substitution must happen, in other cases substitution must not happen. This block explains the prescriber's intent. If nothing is specified substitution may be done.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.replaces</t>
+  </si>
+  <si>
+    <t>Request(s) replaced by this request</t>
   </si>
 </sst>
 </file>
@@ -627,7 +790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -636,8 +799,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.63671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="89.1484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.5078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -660,13 +823,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.12890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.15625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="61.75390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="68.828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -1039,7 +1202,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -1071,7 +1234,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1094,13 +1257,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1151,7 +1314,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -1168,7 +1331,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1191,13 +1354,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1248,7 +1411,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1265,7 +1428,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1291,10 +1454,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1345,7 +1508,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -1362,7 +1525,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1373,7 +1536,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>36</v>
@@ -1385,13 +1548,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1442,13 +1605,13 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>36</v>
@@ -1459,7 +1622,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1467,10 +1630,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>36</v>
@@ -1482,13 +1645,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1524,7 +1687,7 @@
         <v>36</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>36</v>
@@ -1539,13 +1702,13 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>36</v>
@@ -1556,7 +1719,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1564,7 +1727,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>41</v>
@@ -1579,13 +1742,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1621,7 +1784,7 @@
         <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1636,10 +1799,10 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>41</v>
@@ -1653,7 +1816,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1661,7 +1824,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>41</v>
@@ -1676,13 +1839,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1718,7 +1881,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1733,10 +1896,10 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>41</v>
@@ -1750,7 +1913,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1758,7 +1921,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>41</v>
@@ -1773,13 +1936,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1806,14 +1969,16 @@
         <v>36</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X12" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1828,10 +1993,10 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>41</v>
@@ -1845,7 +2010,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1868,13 +2033,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1901,16 +2066,14 @@
         <v>36</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1925,7 +2088,7 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -1942,7 +2105,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1965,7 +2128,7 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>80</v>
@@ -1998,29 +2161,29 @@
         <v>36</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" t="s" s="2">
+      <c r="AB14" s="2"/>
+      <c r="AC14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD14" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AE14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
@@ -2037,9 +2200,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>36</v>
       </c>
@@ -2060,13 +2225,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2093,11 +2258,13 @@
         <v>36</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>36</v>
@@ -2115,10 +2282,10 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>41</v>
@@ -2134,13 +2301,15 @@
       <c r="A16" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>41</v>
@@ -2155,13 +2324,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2197,7 +2366,7 @@
         <v>36</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>36</v>
@@ -2212,7 +2381,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2229,18 +2398,20 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>36</v>
@@ -2252,13 +2423,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2309,13 +2480,13 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>36</v>
@@ -2326,7 +2497,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2337,7 +2508,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>36</v>
@@ -2349,13 +2520,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2391,28 +2562,26 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>36</v>
@@ -2423,15 +2592,17 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>41</v>
@@ -2446,13 +2617,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2488,26 +2659,28 @@
         <v>36</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>36</v>
@@ -2518,10 +2691,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>36</v>
@@ -2543,13 +2716,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2576,11 +2749,13 @@
         <v>36</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="X20" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y20" t="s" s="2">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>36</v>
@@ -2598,13 +2773,13 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>36</v>
@@ -2615,15 +2790,17 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>41</v>
@@ -2695,13 +2872,13 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>36</v>
@@ -2714,16 +2891,18 @@
       <c r="A22" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>36</v>
@@ -2735,13 +2914,13 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2792,13 +2971,13 @@
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>36</v>
@@ -2809,7 +2988,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2817,7 +2996,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>41</v>
@@ -2832,13 +3011,13 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2877,20 +3056,22 @@
         <v>36</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>41</v>
@@ -2904,17 +3085,15 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B24" t="s" s="2">
         <v>117</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>41</v>
@@ -2962,11 +3141,11 @@
         <v>36</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>36</v>
@@ -2984,10 +3163,10 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>41</v>
@@ -3001,7 +3180,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3009,7 +3188,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>41</v>
@@ -3024,13 +3203,13 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3066,7 +3245,7 @@
         <v>36</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>36</v>
@@ -3081,10 +3260,10 @@
         <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>41</v>
@@ -3121,13 +3300,13 @@
         <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3154,13 +3333,11 @@
         <v>36</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>36</v>
@@ -3195,7 +3372,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3218,13 +3395,13 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3275,7 +3452,7 @@
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>37</v>
@@ -3292,7 +3469,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3315,7 +3492,7 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>132</v>
@@ -3372,7 +3549,7 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
@@ -3454,7 +3631,7 @@
         <v>36</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>36</v>
@@ -3486,7 +3663,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3509,13 +3686,13 @@
         <v>36</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3554,19 +3731,17 @@
         <v>36</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>37</v>
@@ -3583,15 +3758,17 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>41</v>
@@ -3639,7 +3816,7 @@
         <v>36</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
@@ -3661,10 +3838,10 @@
         <v>36</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>41</v>
@@ -3673,11 +3850,1561 @@
         <v>36</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB35" s="2"/>
+      <c r="AC35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB37" s="2"/>
+      <c r="AC37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X38" s="2"/>
+      <c r="Y38" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI47" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI31">
+  <autoFilter ref="A1:AI47">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3687,7 +5414,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI30">
+  <conditionalFormatting sqref="A2:AI46">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
